--- a/src/bime_shode.xlsx
+++ b/src/bime_shode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alire\Desktop\projects\insurance-manager\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08FCCE8B-1EED-4F09-A4D6-FD456141BD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9651D-58B2-487C-86BA-77F3C70DB81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FBB7832D-ACF9-4748-885D-5061BB3C467E}"/>
   </bookViews>
@@ -215,12 +215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,6 +257,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C3A5C9-30D6-49A3-9A62-FB751AA6DB5C}">
   <dimension ref="A1:AZ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +694,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2">
@@ -695,22 +703,22 @@
       <c r="D2" s="2">
         <v>6720002</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>160000</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -725,7 +733,7 @@
       <c r="P2" s="2">
         <v>1600000</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="8">
         <v>1440000</v>
       </c>
       <c r="R2" s="2">
@@ -736,7 +744,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2">
@@ -745,22 +753,22 @@
       <c r="D3" s="2">
         <v>6720002</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>50000</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -775,7 +783,7 @@
       <c r="P3" s="2">
         <v>500000</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="8">
         <v>450000</v>
       </c>
       <c r="R3" s="2">
@@ -786,7 +794,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
@@ -795,22 +803,22 @@
       <c r="D4" s="2">
         <v>6720002</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>35970</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -825,7 +833,7 @@
       <c r="P4" s="2">
         <v>660000</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="8">
         <v>323730</v>
       </c>
       <c r="R4" s="2">
@@ -836,7 +844,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
@@ -845,22 +853,22 @@
       <c r="D5" s="2">
         <v>6720002</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -875,7 +883,7 @@
       <c r="P5" s="2">
         <v>700000</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="8">
         <v>700000</v>
       </c>
       <c r="R5" s="2">
@@ -886,7 +894,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2">
@@ -895,22 +903,22 @@
       <c r="D6" s="2">
         <v>6720002</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -925,7 +933,7 @@
       <c r="P6" s="2">
         <v>198000</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="8">
         <v>119798</v>
       </c>
       <c r="R6" s="2">
@@ -936,7 +944,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2">
@@ -945,22 +953,22 @@
       <c r="D7" s="2">
         <v>6720002</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="2">
         <v>15680</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -975,7 +983,7 @@
       <c r="P7" s="2">
         <v>215000</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="8">
         <v>141120</v>
       </c>
       <c r="R7" s="2">
@@ -986,7 +994,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2">
@@ -995,22 +1003,22 @@
       <c r="D8" s="2">
         <v>6720406</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1025,7 +1033,7 @@
       <c r="P8" s="2">
         <v>2237000</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="8">
         <v>1887913</v>
       </c>
       <c r="R8" s="2">
@@ -1036,7 +1044,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2">
@@ -1045,22 +1053,22 @@
       <c r="D9" s="2">
         <v>6720406</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="2">
         <v>90000</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1075,7 +1083,7 @@
       <c r="P9" s="2">
         <v>900000</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="8">
         <v>810000</v>
       </c>
       <c r="R9" s="2">
@@ -1086,7 +1094,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
@@ -1095,22 +1103,22 @@
       <c r="D10" s="2">
         <v>6720002</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1125,7 +1133,7 @@
       <c r="P10" s="2">
         <v>900000</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="8">
         <v>900000</v>
       </c>
     </row>
@@ -1133,7 +1141,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2">
@@ -1142,22 +1150,22 @@
       <c r="D11" s="2">
         <v>6720002</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1172,7 +1180,7 @@
       <c r="P11" s="2">
         <v>700000</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="8">
         <v>700000</v>
       </c>
       <c r="R11" s="2">
@@ -1183,7 +1191,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2">
@@ -1192,22 +1200,22 @@
       <c r="D12" s="2">
         <v>6720002</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="2">
         <v>69000</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -1222,7 +1230,7 @@
       <c r="P12" s="2">
         <v>800000</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="8">
         <v>621000</v>
       </c>
       <c r="R12" s="2">
@@ -1233,7 +1241,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2">
@@ -1242,22 +1250,22 @@
       <c r="D13" s="2">
         <v>6720002</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="2">
         <v>1700000</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -1272,7 +1280,7 @@
       <c r="P13" s="2">
         <v>17000000</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="8">
         <v>15300000</v>
       </c>
       <c r="R13" s="2">
@@ -1283,7 +1291,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2">
@@ -1292,22 +1300,22 @@
       <c r="D14" s="2">
         <v>6720002</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="2">
         <v>1600000</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1322,7 +1330,7 @@
       <c r="P14" s="2">
         <v>16000000</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="8">
         <v>14400000</v>
       </c>
       <c r="R14" s="2">
@@ -1333,7 +1341,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -1342,22 +1350,22 @@
       <c r="D15" s="2">
         <v>6720002</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="2">
         <v>113866</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -1372,7 +1380,7 @@
       <c r="P15" s="2">
         <v>1300000</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="8">
         <v>1024794</v>
       </c>
       <c r="R15" s="2">
@@ -1383,7 +1391,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2">
@@ -1392,22 +1400,22 @@
       <c r="D16" s="2">
         <v>6720002</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1428,7 +1436,7 @@
       <c r="P16" s="2">
         <v>851816</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="8">
         <v>851816</v>
       </c>
       <c r="R16" s="2">
@@ -1439,7 +1447,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2">
@@ -1448,22 +1456,22 @@
       <c r="D17" s="2">
         <v>6720002</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="2">
         <v>69000</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1478,7 +1486,7 @@
       <c r="P17" s="2">
         <v>800000</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="8">
         <v>621000</v>
       </c>
       <c r="R17" s="2">
@@ -1489,7 +1497,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="2">
@@ -1498,22 +1506,22 @@
       <c r="D18" s="2">
         <v>6720406</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="2">
-        <v>10991</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="8">
+        <v>10991</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="2">
         <v>104000</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -1528,7 +1536,7 @@
       <c r="P18" s="2">
         <v>1100000</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="8">
         <v>936000</v>
       </c>
       <c r="R18" s="2">
